--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3295.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3295.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.190138122549996</v>
+        <v>0.85780930519104</v>
       </c>
       <c r="B1">
-        <v>2.570625355075814</v>
+        <v>0.7002959847450256</v>
       </c>
       <c r="C1">
-        <v>3.256780297098709</v>
+        <v>3.366165161132812</v>
       </c>
       <c r="D1">
-        <v>3.046384045521625</v>
+        <v>3.017059564590454</v>
       </c>
       <c r="E1">
-        <v>1.062622058872975</v>
+        <v>1.339669227600098</v>
       </c>
     </row>
   </sheetData>
